--- a/similarities/split_global/harmonic_similarity_timestamps_314.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_314.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:07.980000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=7.98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:01:51.620000', '0:02:06.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:24.980000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=111.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=24.98</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_76</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:min', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C#:min', 'F#:7', 'B:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:19.060000', '0:00:30.080000'), ('0:01:10.560000', '0:01:14.380000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:01:37.390000', '0:01:40.090000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:59.400000', '0:01:07.940000'), ('0:01:04.220000', '0:01:09.760000'), ('0:01:16.560000', '0:01:27.040000')]</t>
+          <t>('0:01:05.960000', '0:01:09.920000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=70.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=97.39</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=64.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-76#t=65.96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+          <t>('0:01:04.420000', '0:01:09.700000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000')]</t>
+          <t>('0:00:40.960000', '0:00:50.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=40.96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:06.774988', '0:00:12.022698')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['F:maj', 'D:7/F#', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Ab', 'F:7', 'Bb:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000')]</t>
+          <t>('0:01:15.240000', '0:01:18.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:01:47.280000', '0:01:52.640000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=75.24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=107.28</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['B', 'E/5', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
+          <t>('0:03:37.493000', '0:03:42.528000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.500000', '0:00:10.400000')]</t>
+          <t>('0:00:55.629773', '0:01:10.444104')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=5.5']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:24.540000', '0:01:38.020000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:17.506000')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=84.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=9.06']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['G', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
+          <t>['F#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:27.609000', '0:00:32.201000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.580000', '0:00:20.980000')]</t>
+          <t>('0:00:25.300000', '0:00:31.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=27.609</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=12.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=25.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:31.370000', '0:00:43.560000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:48.170328', '0:00:59.292687')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:06.700000', '0:00:16.050000')]</t>
+          <t>('0:00:10.540000', '0:00:13.980000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:13.160000', '0:01:21.180000')]</t>
+          <t>('0:01:00.436303', '0:01:14.066417')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=6.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=73.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000')]</t>
+          <t>('0:00:34.300000', '0:00:49.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:02:02.780000', '0:02:05')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.560000', '0:00:19.540000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:00.939000', '0:00:03.682000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=6.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:08.540000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+          <t>('0:00:18.100000', '0:00:44.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
